--- a/demosite/src/testdata/testdata.xlsx
+++ b/demosite/src/testdata/testdata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\AutomatedTestingExercises\thedemosite\demosite\src\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="167">
   <si>
     <t>Username</t>
   </si>
@@ -32,16 +32,506 @@
     <t>Password</t>
   </si>
   <si>
-    <t>newuser1</t>
+    <t>**Successful Login**</t>
+  </si>
+  <si>
+    <t>**Failed Login**</t>
+  </si>
+  <si>
+    <t>bobby</t>
+  </si>
+  <si>
+    <t>mypass</t>
+  </si>
+  <si>
+    <t>gregg</t>
+  </si>
+  <si>
+    <t>h1231</t>
+  </si>
+  <si>
+    <t>dave</t>
+  </si>
+  <si>
+    <t>hunter2</t>
+  </si>
+  <si>
+    <t>tommy</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>p4ssword</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>a123456</t>
+  </si>
+  <si>
+    <t>BestNameEver</t>
+  </si>
+  <si>
+    <t>b123456</t>
+  </si>
+  <si>
+    <t>PrettyinPink</t>
+  </si>
+  <si>
+    <t>a123456789</t>
+  </si>
+  <si>
+    <t>SilverLady</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>BraBeauty</t>
+  </si>
+  <si>
+    <t>a12345678</t>
+  </si>
+  <si>
+    <t>Saphireflames</t>
+  </si>
+  <si>
+    <t>as111111</t>
+  </si>
+  <si>
+    <t>Aquamarine</t>
+  </si>
+  <si>
+    <t>a1234567890</t>
+  </si>
+  <si>
+    <t>Aphrodite</t>
+  </si>
+  <si>
+    <t>1234567a</t>
+  </si>
+  <si>
+    <t>TravelLust</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>123123a</t>
+  </si>
+  <si>
+    <t>PeaceFairy</t>
+  </si>
+  <si>
+    <t>98g7654321</t>
+  </si>
+  <si>
+    <t>Diamante</t>
+  </si>
+  <si>
+    <t>qwertyuiop</t>
+  </si>
+  <si>
+    <t>BronzedIdol</t>
+  </si>
+  <si>
+    <t>mynoob</t>
+  </si>
+  <si>
+    <t>CoolColorOfPink</t>
+  </si>
+  <si>
+    <t>RaveneyesTurquoise</t>
+  </si>
+  <si>
+    <t>Crysweet</t>
+  </si>
+  <si>
+    <t>18atcskd2w</t>
+  </si>
+  <si>
+    <t>MegaFun</t>
+  </si>
+  <si>
+    <t>7l777777</t>
+  </si>
+  <si>
+    <t>Miss.Sporty135</t>
+  </si>
+  <si>
+    <t>1q2w3e4r</t>
+  </si>
+  <si>
+    <t>Compulsive Confessor</t>
+  </si>
+  <si>
+    <t>6a54321</t>
+  </si>
+  <si>
+    <t>Shopaholic</t>
+  </si>
+  <si>
+    <t>55f5555</t>
+  </si>
+  <si>
+    <t>Divaesque</t>
+  </si>
+  <si>
+    <t>3rjs1la7qe</t>
+  </si>
+  <si>
+    <t>Diva</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>De Moonlight</t>
+  </si>
+  <si>
+    <t>1q2w3e4r5t</t>
+  </si>
+  <si>
+    <t>Destiny</t>
+  </si>
+  <si>
+    <t>123qwe</t>
+  </si>
+  <si>
+    <t>Famegrabber</t>
+  </si>
+  <si>
+    <t>zxcvbnm</t>
+  </si>
+  <si>
+    <t>Selena1</t>
+  </si>
+  <si>
+    <t>1q2w3e</t>
+  </si>
+  <si>
+    <t>WizardsRuS</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>BubbleGum</t>
+  </si>
+  <si>
+    <t>SkullGal</t>
+  </si>
+  <si>
+    <t>PixieGurl</t>
+  </si>
+  <si>
+    <t>VanillaTwilight</t>
+  </si>
+  <si>
+    <t>123456sdf</t>
+  </si>
+  <si>
+    <t>Pixie Hollow</t>
+  </si>
+  <si>
+    <t>PinkSugar</t>
+  </si>
+  <si>
+    <t>VioletVelvet</t>
+  </si>
+  <si>
+    <t>GoldenSun</t>
+  </si>
+  <si>
+    <t>DarkAngel</t>
+  </si>
+  <si>
+    <t>1111asd11</t>
+  </si>
+  <si>
+    <t>Beautiful Liar</t>
+  </si>
+  <si>
+    <t>Soft Devil</t>
+  </si>
+  <si>
+    <t>iWoMan</t>
+  </si>
+  <si>
+    <t>The pink devil</t>
+  </si>
+  <si>
+    <t>Solarsparkle</t>
+  </si>
+  <si>
+    <t>Moonshine</t>
+  </si>
+  <si>
+    <t>Soccerchick</t>
+  </si>
+  <si>
+    <t>missamerica</t>
+  </si>
+  <si>
+    <t>12b3321</t>
+  </si>
+  <si>
+    <t>dollface</t>
+  </si>
+  <si>
+    <t>6b66666</t>
+  </si>
+  <si>
+    <t>Show$topper</t>
+  </si>
+  <si>
+    <t>Cerebral Assassin</t>
+  </si>
+  <si>
+    <t>Music2Luv</t>
+  </si>
+  <si>
+    <t>Sk8trGal</t>
+  </si>
+  <si>
+    <t>Sk8trchick</t>
+  </si>
+  <si>
+    <t>Silentsilver</t>
+  </si>
+  <si>
+    <t>CresecentMoon</t>
+  </si>
+  <si>
+    <t>poppypappypoppet</t>
+  </si>
+  <si>
+    <t>Foxylady</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>ki$$ntell</t>
+  </si>
+  <si>
+    <t>Pinkalicous</t>
+  </si>
+  <si>
+    <t>Pinkykisses</t>
+  </si>
+  <si>
+    <t>livelaughlove</t>
+  </si>
+  <si>
+    <t>iHeartCookies</t>
+  </si>
+  <si>
+    <t>RainbowTiara</t>
+  </si>
+  <si>
+    <t>NeonCookies</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>MuseofdaArts</t>
+  </si>
+  <si>
+    <t>HelenofTroy</t>
+  </si>
+  <si>
+    <t>skittlesgirl</t>
+  </si>
+  <si>
+    <t>111b111</t>
+  </si>
+  <si>
+    <t>Josieandthepussycats</t>
+  </si>
+  <si>
+    <t>Angel Charms</t>
+  </si>
+  <si>
+    <t>Angel Ribbons</t>
+  </si>
+  <si>
+    <t>Butterscotch Angel</t>
+  </si>
+  <si>
+    <t>Heavenly Dreams</t>
+  </si>
+  <si>
+    <t>Hello Angel</t>
+  </si>
+  <si>
+    <t>Angel's Haven</t>
+  </si>
+  <si>
+    <t>Pinkest Pink</t>
+  </si>
+  <si>
+    <t>123b321</t>
+  </si>
+  <si>
+    <t>IamStupid..Not</t>
+  </si>
+  <si>
+    <t>66b6666</t>
+  </si>
+  <si>
+    <t>Marge'sHair</t>
+  </si>
+  <si>
+    <t>Pure Woman</t>
+  </si>
+  <si>
+    <t>BlaZe Star</t>
+  </si>
+  <si>
+    <t>Bewitch</t>
+  </si>
+  <si>
+    <t>Eternity</t>
+  </si>
+  <si>
+    <t>FromNowuntill4ever</t>
+  </si>
+  <si>
+    <t>ColormeRed</t>
+  </si>
+  <si>
+    <t>Transient Beauty</t>
+  </si>
+  <si>
+    <t>Electric Rainbow</t>
+  </si>
+  <si>
+    <t>Vanilla Sky</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Calming melody</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Chocolate Moon light</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Venus Fly</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>123b456</t>
+  </si>
+  <si>
+    <t>Sparkle Eyes</t>
+  </si>
+  <si>
+    <t>Windswept</t>
+  </si>
+  <si>
+    <t>daily insanity</t>
+  </si>
+  <si>
+    <t>dangerous bunny</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>1o11111</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>Queenie</t>
+  </si>
+  <si>
+    <t>Random Burglar</t>
+  </si>
+  <si>
+    <t>Moonbeam</t>
+  </si>
+  <si>
+    <t>Chyna White</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Blanca</t>
+  </si>
+  <si>
+    <t>Brandywine</t>
+  </si>
+  <si>
+    <t>666b666</t>
+  </si>
+  <si>
+    <t>Magnolia</t>
+  </si>
+  <si>
+    <t>HannaH</t>
+  </si>
+  <si>
+    <t>Chantel</t>
+  </si>
+  <si>
+    <t>Dream Weaver</t>
+  </si>
+  <si>
+    <t>Opium</t>
+  </si>
+  <si>
+    <t>Lotus</t>
+  </si>
+  <si>
+    <t>We Regret To Inform U</t>
+  </si>
+  <si>
+    <t>Summer breeze</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Falling Slowly</t>
+  </si>
+  <si>
+    <t>AngelfromAbove</t>
+  </si>
+  <si>
+    <t>wowee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,17 +567,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -104,10 +601,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -142,7 +639,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -177,7 +674,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -271,21 +768,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -302,7 +799,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -354,45 +851,1426 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4">
+        <v>123321</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4">
+        <v>666666</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="4">
+        <v>123321</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="200"/>
 </worksheet>
 </file>